--- a/biology/Zoologie/Enochrus_innovatus/Enochrus_innovatus.xlsx
+++ b/biology/Zoologie/Enochrus_innovatus/Enochrus_innovatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philydrus innovatus
 Enochrus innovatus est une espèce fossile d'insectes coléoptères de la famille des Hydrophilidae et du genre Enochrus.
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Philydrus innovatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[1]. 
-Fossile
-Cet holotype F69, ainsi que les cotypes F78,91,109,95,93,87(?), 90(?), de l'ère Cénozoïque, et de l'époque Éocène (38 à 33,9 Ma) font partie de la collection Fliche, enseignant la botanique à l'École nationale des eaux et forêts de Nancy[2] et viennent du gisement éocène de Céreste[2], dans les Alpes-de-Haute-Provence, dans la réserve naturelle géologique du Luberon, gérée par le parc naturel régional du Luberon. Les échantillons se trouvent dans les calcaires en plaquettes "supérieurs" du bassin d'Apt-Forcalquier.
-Renommage
-L'espèce Philydrus innovatus est renommée Enochrus innovatus en 2020 par Matthew E. Clapham (d)[3],[1].
-Étymologie
-L'épithète spécifique innovatus signifie en latin « innové ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Philydrus innovatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981). 
 </t>
         </is>
       </c>
@@ -546,18 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[2],[note 1] : 
-« Corps oblong, arrondi aux extrémités, fortement bombé, coloration brun foncé. Tête trapézoïdale, courte ; deux yeux latéraux, placés contre le corselet, forme arrondie ; épistome droit à l'avant ; labre légèrement échancré ; mandibules à peine saillantes ; antennes manquent ; pronotum fortement échancré à l'avant ; angles antérieurs saillants ; élargi vers l'arrière ; angles postérieurs arrondis ; bord postérieur droit ; écusson moyen, triangulaire. Élytres fortement bombés ; épipleure bien marquée ; pas d'ornementation visible sur l'élytre. on voit par transparence l'abdomen et les pattes ; hanches I très rapprochées. »[2].
-Dimensions
-La longueur totale est de 4,5 mm[2].
-Affinités
-« N'est identique à aucune des formes fossiles connues d'Aix. Par son corps de forme oblongue, peut être rapproché de Philydrus bicolor F. qui vit dans les eaux saumâtres et sur les côtes marines de nos régions. »[2].
+          <t>Fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holotype F69, ainsi que les cotypes F78,91,109,95,93,87(?), 90(?), de l'ère Cénozoïque, et de l'époque Éocène (38 à 33,9 Ma) font partie de la collection Fliche, enseignant la botanique à l'École nationale des eaux et forêts de Nancy et viennent du gisement éocène de Céreste, dans les Alpes-de-Haute-Provence, dans la réserve naturelle géologique du Luberon, gérée par le parc naturel régional du Luberon. Les échantillons se trouvent dans les calcaires en plaquettes "supérieurs" du bassin d'Apt-Forcalquier.
 </t>
         </is>
       </c>
@@ -583,13 +591,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Philydrus innovatus est renommée Enochrus innovatus en 2020 par Matthew E. Clapham (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Enochrus_innovatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enochrus_innovatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique innovatus signifie en latin « innové ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Enochrus_innovatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enochrus_innovatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Corps oblong, arrondi aux extrémités, fortement bombé, coloration brun foncé. Tête trapézoïdale, courte ; deux yeux latéraux, placés contre le corselet, forme arrondie ; épistome droit à l'avant ; labre légèrement échancré ; mandibules à peine saillantes ; antennes manquent ; pronotum fortement échancré à l'avant ; angles antérieurs saillants ; élargi vers l'arrière ; angles postérieurs arrondis ; bord postérieur droit ; écusson moyen, triangulaire. Élytres fortement bombés ; épipleure bien marquée ; pas d'ornementation visible sur l'élytre. on voit par transparence l'abdomen et les pattes ; hanches I très rapprochées. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Enochrus_innovatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enochrus_innovatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 4,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Enochrus_innovatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enochrus_innovatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« N'est identique à aucune des formes fossiles connues d'Aix. Par son corps de forme oblongue, peut être rapproché de Philydrus bicolor F. qui vit dans les eaux saumâtres et sur les côtes marines de nos régions. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Enochrus_innovatus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enochrus_innovatus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« On connaît actuellement une espèce européenne : Enochrus melanocephalus vivant dans les eaux douces de l'Europe centrale. »[4].
+« On connaît actuellement une espèce européenne : Enochrus melanocephalus vivant dans les eaux douces de l'Europe centrale. ».
 </t>
         </is>
       </c>
